--- a/output/SIZE/rebalance/rebalance_20240930.xlsx
+++ b/output/SIZE/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>2.37%</t>
         </is>
       </c>
     </row>
@@ -30960,13 +30960,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.31417148914951</v>
+        <v>0.3117771692453272</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01417148914951005</v>
+        <v>-0.01177716924532723</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -30981,17 +30981,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07179527771107688</v>
+        <v>0.0731344889168882</v>
       </c>
       <c r="C3" t="n">
         <v>0.07259448965293815</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007992119418612637</v>
+        <v>-0.0005399992639500556</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31002,13 +31002,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05445089887746355</v>
+        <v>0.05523481457961953</v>
       </c>
       <c r="C4" t="n">
         <v>0.05256119105717656</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001889707820286995</v>
+        <v>-0.002673623522442971</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31023,13 +31023,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03633939162416143</v>
+        <v>0.03606481144490434</v>
       </c>
       <c r="C5" t="n">
         <v>0.03854170822674007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002202316602578636</v>
+        <v>0.00247689678183572</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31044,17 +31044,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0293969458601057</v>
+        <v>0.03017670641537451</v>
       </c>
       <c r="C6" t="n">
         <v>0.03009198008946654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006950342293608434</v>
+        <v>-8.4726325907971e-05</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31065,13 +31065,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02946894379932726</v>
+        <v>0.02924465558041428</v>
       </c>
       <c r="C7" t="n">
         <v>0.02847939604502372</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0009895477543035401</v>
+        <v>-0.000765259535390559</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31086,13 +31086,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02804709980100968</v>
+        <v>0.02782882025557378</v>
       </c>
       <c r="C8" t="n">
         <v>0.02760300381581321</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0004440959851964715</v>
+        <v>-0.0002258164397605719</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31107,13 +31107,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02631655183383973</v>
+        <v>0.02716173500803663</v>
       </c>
       <c r="C9" t="n">
         <v>0.0271896639499013</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0008731121160615654</v>
+        <v>2.79289418646661e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31128,13 +31128,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01881919412273982</v>
+        <v>0.01867640781078315</v>
       </c>
       <c r="C10" t="n">
         <v>0.01933062082371135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005114267009715297</v>
+        <v>0.0006542130129281905</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31149,17 +31149,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01832273025627103</v>
+        <v>0.01921643615725116</v>
       </c>
       <c r="C11" t="n">
         <v>0.01882455877166244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005018285153914094</v>
+        <v>-0.000391877385588723</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31170,17 +31170,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01842210120972466</v>
+        <v>0.018861270262</v>
       </c>
       <c r="C12" t="n">
         <v>0.01858381622813807</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0001617150184134164</v>
+        <v>-0.0002774540338619236</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31191,13 +31191,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01535369988929525</v>
+        <v>0.01523825635284354</v>
       </c>
       <c r="C13" t="n">
         <v>0.0162808428941451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009271430048498463</v>
+        <v>0.001042586541301554</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31212,13 +31212,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01365680486356528</v>
+        <v>0.01355371183250071</v>
       </c>
       <c r="C14" t="n">
         <v>0.01402059996520923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003637951016439555</v>
+        <v>0.0004668881327085268</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31233,13 +31233,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01347055323632073</v>
+        <v>0.01336691261597887</v>
       </c>
       <c r="C15" t="n">
         <v>0.01383766914617389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000367115909853161</v>
+        <v>0.0004707565301950243</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31254,13 +31254,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01191468737794347</v>
+        <v>0.01182403224146203</v>
       </c>
       <c r="C16" t="n">
         <v>0.01253090074576726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0006162133678237897</v>
+        <v>0.0007068685043052254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31275,17 +31275,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01218555354701471</v>
+        <v>0.01209181123979613</v>
       </c>
       <c r="C17" t="n">
         <v>0.01210415526258253</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.139828443217735e-05</v>
+        <v>1.234402278639697e-05</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31296,13 +31296,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01178906146001132</v>
+        <v>0.01169876904361982</v>
       </c>
       <c r="C18" t="n">
         <v>0.01195836917474062</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001693077147293092</v>
+        <v>0.0002596001311208039</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31317,17 +31317,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01124675321822666</v>
+        <v>0.01155351540815972</v>
       </c>
       <c r="C19" t="n">
         <v>0.01147213626490776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002253830466811008</v>
+        <v>-8.137914325195318e-05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31338,13 +31338,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0109500029668392</v>
+        <v>0.01086699449983379</v>
       </c>
       <c r="C20" t="n">
         <v>0.01145873064763495</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0005087276807957414</v>
+        <v>0.0005917361478011522</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31359,13 +31359,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01085195799684728</v>
+        <v>0.01076850186360552</v>
       </c>
       <c r="C21" t="n">
         <v>0.01103114731337067</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001791893165233854</v>
+        <v>0.0002626454497651493</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31380,13 +31380,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01031688126254922</v>
+        <v>0.01023780909403687</v>
       </c>
       <c r="C22" t="n">
         <v>0.01101243530592736</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0006955540433781406</v>
+        <v>0.0007746262118904917</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31401,13 +31401,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.010231013685927</v>
+        <v>0.01015364597170701</v>
       </c>
       <c r="C23" t="n">
         <v>0.01073538588228911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0005043721963621083</v>
+        <v>0.0005817399105820988</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31422,13 +31422,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009831561192316969</v>
+        <v>0.00975661467469735</v>
       </c>
       <c r="C24" t="n">
         <v>0.01019804405660362</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0003664828642866557</v>
+        <v>0.0004414293819062741</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31443,13 +31443,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009968694654566016</v>
+        <v>0.009893343577841385</v>
       </c>
       <c r="C25" t="n">
         <v>0.01018882769472856</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002201330401625443</v>
+        <v>0.0002954841168871757</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31464,13 +31464,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009513103820448548</v>
+        <v>0.009440505344651512</v>
       </c>
       <c r="C26" t="n">
         <v>0.009890273426715163</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003771696062666152</v>
+        <v>0.0004497680820636507</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31485,13 +31485,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009250098370043505</v>
+        <v>0.009180377399480827</v>
       </c>
       <c r="C27" t="n">
         <v>0.009511285455064852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002611870850213471</v>
+        <v>0.0003309080555840248</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31506,17 +31506,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00950273321471889</v>
+        <v>0.009430655434765511</v>
       </c>
       <c r="C28" t="n">
         <v>0.009470230752166844</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.25024625520455e-05</v>
+        <v>3.957531740133267e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31527,13 +31527,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009144189674245106</v>
+        <v>0.009073851315678406</v>
       </c>
       <c r="C29" t="n">
         <v>0.009368850771541152</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002246610972960455</v>
+        <v>0.0002949994558627458</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31548,13 +31548,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008875035696902157</v>
+        <v>0.008807635605802113</v>
       </c>
       <c r="C30" t="n">
         <v>0.009133693901880457</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002586582049783001</v>
+        <v>0.0003260582960783447</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31569,13 +31569,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008891879514614693</v>
+        <v>0.008824996913478579</v>
       </c>
       <c r="C31" t="n">
         <v>0.008899374883299315</v>
       </c>
       <c r="D31" t="n">
-        <v>7.495368684622486e-06</v>
+        <v>7.437796982073634e-05</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -31590,13 +31590,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007116758523911977</v>
+        <v>0.007064741889828894</v>
       </c>
       <c r="C32" t="n">
         <v>0.008844076712048937</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001727318188136959</v>
+        <v>0.001779334822220043</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31611,13 +31611,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008355651615149168</v>
+        <v>0.008292108731793403</v>
       </c>
       <c r="C33" t="n">
         <v>0.008803022009150931</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0004473703940017625</v>
+        <v>0.0005109132773575276</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31632,13 +31632,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008045033973499538</v>
+        <v>0.007983993631761707</v>
       </c>
       <c r="C34" t="n">
         <v>0.008591604253410854</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000546570279911316</v>
+        <v>0.0006076106216491468</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31653,13 +31653,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008310886349137585</v>
+        <v>0.008246994321136422</v>
       </c>
       <c r="C35" t="n">
         <v>0.0085650723025584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000254185953420815</v>
+        <v>0.0003180779814219784</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31674,13 +31674,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008158242485678306</v>
+        <v>0.008367628798120447</v>
       </c>
       <c r="C36" t="n">
         <v>0.008474863669660056</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0003166211839817495</v>
+        <v>0.000107234871539609</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -31695,13 +31695,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007819150352052657</v>
+        <v>0.007760111876404704</v>
       </c>
       <c r="C37" t="n">
         <v>0.008346672454488727</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005275221024360708</v>
+        <v>0.0005865605780840232</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -31716,13 +31716,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008486686051054966</v>
+        <v>0.008421409024263639</v>
       </c>
       <c r="C38" t="n">
         <v>0.008336897525227299</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0001497885258276675</v>
+        <v>-8.451149903634068e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -31737,13 +31737,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.008073423234519012</v>
+        <v>0.008012017716612963</v>
       </c>
       <c r="C39" t="n">
         <v>0.008171282295169351</v>
       </c>
       <c r="D39" t="n">
-        <v>9.785906065033941e-05</v>
+        <v>0.0001592645785563878</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -31779,13 +31779,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007830158864868354</v>
+        <v>0.007770890164235353</v>
       </c>
       <c r="C41" t="n">
         <v>0.007750681053234664</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.947781163369048e-05</v>
+        <v>-2.020911100068887e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -31800,13 +31800,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.008067341008451835</v>
+        <v>0.008006641063725688</v>
       </c>
       <c r="C42" t="n">
         <v>0.007680301562552366</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0003870394458994689</v>
+        <v>-0.0003263395011733217</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -31821,13 +31821,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007604709811126455</v>
+        <v>0.007546221259732172</v>
       </c>
       <c r="C43" t="n">
         <v>0.007661030987722689</v>
       </c>
       <c r="D43" t="n">
-        <v>5.632117659623397e-05</v>
+        <v>0.0001148097279905173</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -31842,13 +31842,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006939493061736922</v>
+        <v>0.007091783810815023</v>
       </c>
       <c r="C44" t="n">
         <v>0.007316953477720343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0003774604159834218</v>
+        <v>0.0002251696669053208</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -31863,13 +31863,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006762207463004993</v>
+        <v>0.006710401037115767</v>
       </c>
       <c r="C45" t="n">
         <v>0.007233447653458411</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0004712401904534182</v>
+        <v>0.0005230466163426437</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -31884,13 +31884,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007096524515925857</v>
+        <v>0.007043338646396271</v>
       </c>
       <c r="C46" t="n">
         <v>0.007112517814309858</v>
       </c>
       <c r="D46" t="n">
-        <v>1.599329838400127e-05</v>
+        <v>6.917916791358662e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -31905,13 +31905,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.007027840418212123</v>
+        <v>0.006974129825810567</v>
       </c>
       <c r="C47" t="n">
         <v>0.006746935459932367</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0002809049582797552</v>
+        <v>-0.0002271943658781993</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -31926,13 +31926,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006799622928651762</v>
+        <v>0.006748145288370417</v>
       </c>
       <c r="C48" t="n">
         <v>0.006729340587261792</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.028234138997062e-05</v>
+        <v>-1.880470110862502e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -31947,13 +31947,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006202651255323228</v>
+        <v>0.006154819353266902</v>
       </c>
       <c r="C49" t="n">
         <v>0.006522670654305837</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0003200193989826095</v>
+        <v>0.0003678513010389357</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -31968,13 +31968,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006693466710972416</v>
+        <v>0.006642002778211632</v>
       </c>
       <c r="C50" t="n">
         <v>0.006316000721349881</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0003774659896225345</v>
+        <v>-0.0003260020568617503</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -31989,17 +31989,17 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006169824080958133</v>
+        <v>0.006123091599191281</v>
       </c>
       <c r="C51" t="n">
         <v>0.006133349186007728</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.647489495040446e-05</v>
+        <v>1.025758681644662e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -32010,13 +32010,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005945437408138877</v>
+        <v>0.005900273077094249</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005945437408138877</v>
+        <v>-0.005900273077094249</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20240930.xlsx
+++ b/output/SIZE/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.37%</t>
+          <t>3.10%</t>
         </is>
       </c>
     </row>
@@ -30960,13 +30960,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3117771692453272</v>
+        <v>0.3187698598887825</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01177716924532723</v>
+        <v>-0.01876985988878249</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -30981,17 +30981,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0731344889168882</v>
+        <v>0.07122564280430818</v>
       </c>
       <c r="C3" t="n">
         <v>0.07259448965293815</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0005399992639500556</v>
+        <v>0.001368846848629965</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31002,13 +31002,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05523481457961953</v>
+        <v>0.05425706504432719</v>
       </c>
       <c r="C4" t="n">
         <v>0.05256119105717656</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002673623522442971</v>
+        <v>-0.001695873987150633</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31023,13 +31023,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03606481144490434</v>
+        <v>0.03595367830411093</v>
       </c>
       <c r="C5" t="n">
         <v>0.03854170822674007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00247689678183572</v>
+        <v>0.002588029922629138</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31044,17 +31044,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03017670641537451</v>
+        <v>0.02892354302998409</v>
       </c>
       <c r="C6" t="n">
         <v>0.03009198008946654</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.4726325907971e-05</v>
+        <v>0.001168437059482452</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31065,13 +31065,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02924465558041428</v>
+        <v>0.03002804931873563</v>
       </c>
       <c r="C7" t="n">
         <v>0.02847939604502372</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.000765259535390559</v>
+        <v>-0.001548653273711908</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -31086,13 +31086,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02782882025557378</v>
+        <v>0.02857922909647834</v>
       </c>
       <c r="C8" t="n">
         <v>0.02760300381581321</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0002258164397605719</v>
+        <v>-0.0009762252806651342</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31107,13 +31107,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02716173500803663</v>
+        <v>0.02573914074501627</v>
       </c>
       <c r="C9" t="n">
         <v>0.0271896639499013</v>
       </c>
       <c r="D9" t="n">
-        <v>2.79289418646661e-05</v>
+        <v>0.001450523204885021</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31128,13 +31128,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01867640781078315</v>
+        <v>0.01825938322038779</v>
       </c>
       <c r="C10" t="n">
         <v>0.01933062082371135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006542130129281905</v>
+        <v>0.001071237603323557</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31149,17 +31149,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01921643615725116</v>
+        <v>0.01760749140434173</v>
       </c>
       <c r="C11" t="n">
         <v>0.01882455877166244</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.000391877385588723</v>
+        <v>0.001217067367320714</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31170,17 +31170,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.018861270262</v>
+        <v>0.01817796925299509</v>
       </c>
       <c r="C12" t="n">
         <v>0.01858381622813807</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0002774540338619236</v>
+        <v>0.0004058469751429816</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31191,13 +31191,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01523825635284354</v>
+        <v>0.01502905615343545</v>
       </c>
       <c r="C13" t="n">
         <v>0.0162808428941451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001042586541301554</v>
+        <v>0.001251786740709646</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31212,13 +31212,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01355371183250071</v>
+        <v>0.01347967590058645</v>
       </c>
       <c r="C14" t="n">
         <v>0.01402059996520923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004668881327085268</v>
+        <v>0.0005409240646227775</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31233,13 +31233,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01336691261597887</v>
+        <v>0.01321075209854082</v>
       </c>
       <c r="C15" t="n">
         <v>0.01383766914617389</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004707565301950243</v>
+        <v>0.0006269170476330722</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -31254,13 +31254,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01182403224146203</v>
+        <v>0.01160115270537486</v>
       </c>
       <c r="C16" t="n">
         <v>0.01253090074576726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0007068685043052254</v>
+        <v>0.0009297480403923936</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31275,17 +31275,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01209181123979613</v>
+        <v>0.01241674643575805</v>
       </c>
       <c r="C17" t="n">
         <v>0.01210415526258253</v>
       </c>
       <c r="D17" t="n">
-        <v>1.234402278639697e-05</v>
+        <v>-0.0003125911731755165</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31296,13 +31296,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01169876904361982</v>
+        <v>0.01150878307252148</v>
       </c>
       <c r="C18" t="n">
         <v>0.01195836917474062</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0002596001311208039</v>
+        <v>0.0004495861022191447</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31317,17 +31317,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01155351540815972</v>
+        <v>0.01105383153033376</v>
       </c>
       <c r="C19" t="n">
         <v>0.01147213626490776</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.137914325195318e-05</v>
+        <v>0.0004183047345740001</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31338,13 +31338,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01086699449983379</v>
+        <v>0.01115775412134232</v>
       </c>
       <c r="C20" t="n">
         <v>0.01145873064763495</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0005917361478011522</v>
+        <v>0.0003009765262926289</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31359,17 +31359,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01076850186360552</v>
+        <v>0.01105784897325084</v>
       </c>
       <c r="C21" t="n">
         <v>0.01103114731337067</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0002626454497651493</v>
+        <v>-2.670165988017358e-05</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31380,13 +31380,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01023780909403687</v>
+        <v>0.0102482798356564</v>
       </c>
       <c r="C22" t="n">
         <v>0.01101243530592736</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0007746262118904917</v>
+        <v>0.0007641554702709635</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31401,13 +31401,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01015364597170701</v>
+        <v>0.01008946627941883</v>
       </c>
       <c r="C23" t="n">
         <v>0.01073538588228911</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0005817399105820988</v>
+        <v>0.0006459196028702745</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31422,13 +31422,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00975661467469735</v>
+        <v>0.009864977532555906</v>
       </c>
       <c r="C24" t="n">
         <v>0.01019804405660362</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004414293819062741</v>
+        <v>0.0003330665240477183</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31443,13 +31443,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009893343577841385</v>
+        <v>0.01001674679707247</v>
       </c>
       <c r="C25" t="n">
         <v>0.01018882769472856</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002954841168871757</v>
+        <v>0.0001720808976560899</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31464,13 +31464,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009440505344651512</v>
+        <v>0.009229229372162839</v>
       </c>
       <c r="C26" t="n">
         <v>0.009890273426715163</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0004497680820636507</v>
+        <v>0.000661044054552324</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31485,13 +31485,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009180377399480827</v>
+        <v>0.009265298458163656</v>
       </c>
       <c r="C27" t="n">
         <v>0.009511285455064852</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0003309080555840248</v>
+        <v>0.0002459869969011954</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31506,17 +31506,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009430655434765511</v>
+        <v>0.009540366070447908</v>
       </c>
       <c r="C28" t="n">
         <v>0.009470230752166844</v>
       </c>
       <c r="D28" t="n">
-        <v>3.957531740133267e-05</v>
+        <v>-7.013531828106365e-05</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31527,13 +31527,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009073851315678406</v>
+        <v>0.009158618571613994</v>
       </c>
       <c r="C29" t="n">
         <v>0.009368850771541152</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0002949994558627458</v>
+        <v>0.0002102321999271576</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31548,13 +31548,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008807635605802113</v>
+        <v>0.008673719590077523</v>
       </c>
       <c r="C30" t="n">
         <v>0.009133693901880457</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003260582960783447</v>
+        <v>0.0004599743118029343</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -31569,17 +31569,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008824996913478579</v>
+        <v>0.009060582504052974</v>
       </c>
       <c r="C31" t="n">
         <v>0.008899374883299315</v>
       </c>
       <c r="D31" t="n">
-        <v>7.437796982073634e-05</v>
+        <v>-0.0001612076207536586</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31590,13 +31590,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007064741889828894</v>
+        <v>0.007251782669945563</v>
       </c>
       <c r="C32" t="n">
         <v>0.008844076712048937</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001779334822220043</v>
+        <v>0.001592294042103373</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -31611,13 +31611,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008292108731793403</v>
+        <v>0.008036191808067182</v>
       </c>
       <c r="C33" t="n">
         <v>0.008803022009150931</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0005109132773575276</v>
+        <v>0.0007668302010837482</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -31632,13 +31632,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007983993631761707</v>
+        <v>0.007947232029837659</v>
       </c>
       <c r="C34" t="n">
         <v>0.008591604253410854</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0006076106216491468</v>
+        <v>0.0006443722235731954</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -31653,13 +31653,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008246994321136422</v>
+        <v>0.008189382822471399</v>
       </c>
       <c r="C35" t="n">
         <v>0.0085650723025584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0003180779814219784</v>
+        <v>0.0003756894800870016</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -31674,13 +31674,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008367628798120447</v>
+        <v>0.008033716164499632</v>
       </c>
       <c r="C36" t="n">
         <v>0.008474863669660056</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000107234871539609</v>
+        <v>0.0004411475051604233</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -31695,13 +31695,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.007760111876404704</v>
+        <v>0.007632298471902083</v>
       </c>
       <c r="C37" t="n">
         <v>0.008346672454488727</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0005865605780840232</v>
+        <v>0.0007143739825866448</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -31716,13 +31716,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008421409024263639</v>
+        <v>0.008477210371261557</v>
       </c>
       <c r="C38" t="n">
         <v>0.008336897525227299</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.451149903634068e-05</v>
+        <v>-0.0001403128460342584</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -31737,17 +31737,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.008012017716612963</v>
+        <v>0.008226597896009324</v>
       </c>
       <c r="C39" t="n">
         <v>0.008171282295169351</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001592645785563878</v>
+        <v>-5.531560083997349e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31779,13 +31779,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007770890164235353</v>
+        <v>0.007775254008976796</v>
       </c>
       <c r="C41" t="n">
         <v>0.007750681053234664</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.020911100068887e-05</v>
+        <v>-2.457295574213175e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -31800,13 +31800,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.008006641063725688</v>
+        <v>0.008220400273673198</v>
       </c>
       <c r="C42" t="n">
         <v>0.007680301562552366</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0003263395011733217</v>
+        <v>-0.0005400987111208316</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -31821,17 +31821,17 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007546221259732172</v>
+        <v>0.007748991712027051</v>
       </c>
       <c r="C43" t="n">
         <v>0.007661030987722689</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001148097279905173</v>
+        <v>-8.796072430436192e-05</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31842,13 +31842,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007091783810815023</v>
+        <v>0.006860389352938738</v>
       </c>
       <c r="C44" t="n">
         <v>0.007316953477720343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0002251696669053208</v>
+        <v>0.0004565641247816056</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -31863,13 +31863,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006710401037115767</v>
+        <v>0.006654932006717957</v>
       </c>
       <c r="C45" t="n">
         <v>0.007233447653458411</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0005230466163426437</v>
+        <v>0.0005785156467404545</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -31884,13 +31884,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.007043338646396271</v>
+        <v>0.007039050932637003</v>
       </c>
       <c r="C46" t="n">
         <v>0.007112517814309858</v>
       </c>
       <c r="D46" t="n">
-        <v>6.917916791358662e-05</v>
+        <v>7.346688167285485e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -31905,13 +31905,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006974129825810567</v>
+        <v>0.006933954923102</v>
       </c>
       <c r="C47" t="n">
         <v>0.006746935459932367</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0002271943658781993</v>
+        <v>-0.0001870194631696329</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -31926,17 +31926,17 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.006748145288370417</v>
+        <v>0.0067160954878773</v>
       </c>
       <c r="C48" t="n">
         <v>0.006729340587261792</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.880470110862502e-05</v>
+        <v>1.324509938449136e-05</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31947,13 +31947,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006154819353266902</v>
+        <v>0.006204362915322919</v>
       </c>
       <c r="C49" t="n">
         <v>0.006522670654305837</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0003678513010389357</v>
+        <v>0.0003183077389829186</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -31968,13 +31968,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.006642002778211632</v>
+        <v>0.006740573843203355</v>
       </c>
       <c r="C50" t="n">
         <v>0.006316000721349881</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0003260020568617503</v>
+        <v>-0.0004245731218534736</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -31989,17 +31989,17 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.006123091599191281</v>
+        <v>0.006187353775972267</v>
       </c>
       <c r="C51" t="n">
         <v>0.006133349186007728</v>
       </c>
       <c r="D51" t="n">
-        <v>1.025758681644662e-05</v>
+        <v>-5.400458996453888e-05</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32010,13 +32010,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005900273077094249</v>
+        <v>0.00594029042172286</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005900273077094249</v>
+        <v>-0.00594029042172286</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
